--- a/teaching/traditional_assets/database/data/netherlands/netherlands_electronics_consumer_office.xlsx
+++ b/teaching/traditional_assets/database/data/netherlands/netherlands_electronics_consumer_office.xlsx
@@ -591,37 +591,34 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.0562</v>
-      </c>
-      <c r="E2">
-        <v>0.9440000000000001</v>
+        <v>-0.107</v>
       </c>
       <c r="G2">
-        <v>0.5977026164645819</v>
+        <v>0.6360450944546009</v>
       </c>
       <c r="H2">
-        <v>0.1753669432035737</v>
+        <v>0.05895795246800732</v>
       </c>
       <c r="I2">
-        <v>-0.2616464582003829</v>
+        <v>-0.5135892078670873</v>
       </c>
       <c r="J2">
-        <v>-0.2616464582003829</v>
+        <v>-0.5135892078670873</v>
       </c>
       <c r="K2">
-        <v>766.8</v>
+        <v>-306.1</v>
       </c>
       <c r="L2">
-        <v>0.9786853860880663</v>
+        <v>-0.4663315051797685</v>
       </c>
       <c r="M2">
-        <v>818.8</v>
+        <v>19.5</v>
       </c>
       <c r="N2">
-        <v>0.5909779862865391</v>
+        <v>0.01450569069404151</v>
       </c>
       <c r="O2">
-        <v>1.067814293166406</v>
+        <v>-0.06370467167592289</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -630,82 +627,82 @@
         <v>0</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S2">
-        <v>818.8</v>
+        <v>19.5</v>
       </c>
       <c r="T2">
         <v>1</v>
       </c>
       <c r="U2">
-        <v>428.4</v>
+        <v>230.7</v>
       </c>
       <c r="V2">
-        <v>0.3092024539877301</v>
+        <v>0.1716134791341218</v>
       </c>
       <c r="W2">
-        <v>0.855708068295949</v>
+        <v>-0.3819089207735496</v>
       </c>
       <c r="X2">
-        <v>0.08818337528933193</v>
+        <v>0.06477607296285352</v>
       </c>
       <c r="Y2">
-        <v>0.7675246930066171</v>
+        <v>-0.4466849937364031</v>
       </c>
       <c r="Z2">
-        <v>1.786365709074327</v>
+        <v>3.258865635161382</v>
       </c>
       <c r="AA2">
-        <v>-0.4673962608299133</v>
+        <v>-1.673718220107806</v>
       </c>
       <c r="AB2">
-        <v>0.08652261396990753</v>
+        <v>0.0630631160655598</v>
       </c>
       <c r="AC2">
-        <v>-0.5539188747998208</v>
+        <v>-1.736781336173366</v>
       </c>
       <c r="AD2">
-        <v>37.8</v>
+        <v>47.1</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <v>0.2197802197802197</v>
       </c>
       <c r="AF2">
-        <v>37.8</v>
+        <v>47.31978021978022</v>
       </c>
       <c r="AG2">
-        <v>-390.6</v>
+        <v>-183.3802197802198</v>
       </c>
       <c r="AH2">
-        <v>0.02655799901637041</v>
+        <v>0.03400338288688808</v>
       </c>
       <c r="AI2">
-        <v>0.04503753127606339</v>
+        <v>0.08210681264789275</v>
       </c>
       <c r="AJ2">
-        <v>-0.3926022715850839</v>
+        <v>-0.1579611467602895</v>
       </c>
       <c r="AK2">
-        <v>-0.9505962521294717</v>
+        <v>-0.530583694207571</v>
       </c>
       <c r="AL2">
-        <v>4.18</v>
+        <v>2.7</v>
       </c>
       <c r="AM2">
-        <v>4.18</v>
+        <v>1.31</v>
       </c>
       <c r="AN2">
-        <v>0.6258278145695364</v>
+        <v>-1.58714112414072</v>
       </c>
       <c r="AO2">
-        <v>-49.04306220095694</v>
+        <v>-124.9259259259259</v>
       </c>
       <c r="AP2">
-        <v>-6.466887417218542</v>
+        <v>6.179411638368371</v>
       </c>
       <c r="AQ2">
-        <v>-49.04306220095694</v>
+        <v>-257.4809160305343</v>
       </c>
     </row>
     <row r="3">
@@ -725,37 +722,34 @@
         </is>
       </c>
       <c r="D3">
-        <v>-0.0562</v>
-      </c>
-      <c r="E3">
-        <v>0.9440000000000001</v>
+        <v>-0.107</v>
       </c>
       <c r="G3">
-        <v>0.5977026164645819</v>
+        <v>0.6360450944546009</v>
       </c>
       <c r="H3">
-        <v>0.1753669432035737</v>
+        <v>0.05895795246800732</v>
       </c>
       <c r="I3">
-        <v>-0.2616464582003829</v>
+        <v>-0.5135892078670873</v>
       </c>
       <c r="J3">
-        <v>-0.2616464582003829</v>
+        <v>-0.5135892078670873</v>
       </c>
       <c r="K3">
-        <v>766.8</v>
+        <v>-306.1</v>
       </c>
       <c r="L3">
-        <v>0.9786853860880663</v>
+        <v>-0.4663315051797685</v>
       </c>
       <c r="M3">
-        <v>818.8</v>
+        <v>19.5</v>
       </c>
       <c r="N3">
-        <v>0.5909779862865391</v>
+        <v>0.01450569069404151</v>
       </c>
       <c r="O3">
-        <v>1.067814293166406</v>
+        <v>-0.06370467167592289</v>
       </c>
       <c r="P3">
         <v>-0</v>
@@ -764,82 +758,82 @@
         <v>-0</v>
       </c>
       <c r="R3">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>818.8</v>
+        <v>19.5</v>
       </c>
       <c r="T3">
         <v>1</v>
       </c>
       <c r="U3">
-        <v>428.4</v>
+        <v>230.7</v>
       </c>
       <c r="V3">
-        <v>0.3092024539877301</v>
+        <v>0.1716134791341218</v>
       </c>
       <c r="W3">
-        <v>0.855708068295949</v>
+        <v>-0.3819089207735496</v>
       </c>
       <c r="X3">
-        <v>0.08818337528933193</v>
+        <v>0.06477607296285352</v>
       </c>
       <c r="Y3">
-        <v>0.7675246930066171</v>
+        <v>-0.4466849937364031</v>
       </c>
       <c r="Z3">
-        <v>1.786365709074327</v>
+        <v>3.258865635161382</v>
       </c>
       <c r="AA3">
-        <v>-0.4673962608299133</v>
+        <v>-1.673718220107806</v>
       </c>
       <c r="AB3">
-        <v>0.08652261396990753</v>
+        <v>0.0630631160655598</v>
       </c>
       <c r="AC3">
-        <v>-0.5539188747998208</v>
+        <v>-1.736781336173366</v>
       </c>
       <c r="AD3">
-        <v>37.8</v>
+        <v>47.1</v>
       </c>
       <c r="AE3">
-        <v>0</v>
+        <v>0.2197802197802197</v>
       </c>
       <c r="AF3">
-        <v>37.8</v>
+        <v>47.31978021978022</v>
       </c>
       <c r="AG3">
-        <v>-390.6</v>
+        <v>-183.3802197802198</v>
       </c>
       <c r="AH3">
-        <v>0.02655799901637041</v>
+        <v>0.03400338288688808</v>
       </c>
       <c r="AI3">
-        <v>0.04503753127606339</v>
+        <v>0.08210681264789275</v>
       </c>
       <c r="AJ3">
-        <v>-0.3926022715850839</v>
+        <v>-0.1579611467602895</v>
       </c>
       <c r="AK3">
-        <v>-0.9505962521294717</v>
+        <v>-0.530583694207571</v>
       </c>
       <c r="AL3">
-        <v>4.18</v>
+        <v>2.7</v>
       </c>
       <c r="AM3">
-        <v>4.18</v>
+        <v>1.31</v>
       </c>
       <c r="AN3">
-        <v>0.6258278145695364</v>
+        <v>-1.58714112414072</v>
       </c>
       <c r="AO3">
-        <v>-49.04306220095694</v>
+        <v>-124.9259259259259</v>
       </c>
       <c r="AP3">
-        <v>-6.466887417218542</v>
+        <v>6.179411638368371</v>
       </c>
       <c r="AQ3">
-        <v>-49.04306220095694</v>
+        <v>-257.4809160305343</v>
       </c>
     </row>
   </sheetData>
